--- a/bdControleAcademico/ModeloLogico.xlsx
+++ b/bdControleAcademico/ModeloLogico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c4593aa90c1e7188/Documents/Faculdade/BD/bd_Exercicies/bdControleAcademico/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{3B26FFCF-E3A4-4024-B470-FC0187E59178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{025CE646-D28B-4688-84EF-964D255FAE88}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{3B26FFCF-E3A4-4024-B470-FC0187E59178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFDC741C-F7E1-41FA-B97D-8A8440F5D421}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>Disciplina</t>
   </si>
@@ -497,6 +497,12 @@
       </rPr>
       <t xml:space="preserve"> Formação Escolar</t>
     </r>
+  </si>
+  <si>
+    <t>Nível_escolar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR(15) </t>
   </si>
 </sst>
 </file>
@@ -579,7 +585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -760,11 +766,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -786,8 +823,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -799,6 +834,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,9 +929,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>292652</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
@@ -921,8 +963,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8810625" y="5324475"/>
-          <a:ext cx="19050" cy="1057275"/>
+          <a:off x="15173739" y="5455478"/>
+          <a:ext cx="2623" cy="835163"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3138,6 +3180,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3439,8 +3485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E2:AE71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y66" sqref="Y66"/>
+    <sheetView tabSelected="1" topLeftCell="N20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC31" sqref="AC31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3619,21 +3665,20 @@
       </c>
     </row>
     <row r="20" spans="6:29" x14ac:dyDescent="0.35">
-      <c r="H20" s="27"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="24"/>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" spans="6:29" x14ac:dyDescent="0.35">
       <c r="G21" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="25"/>
+      <c r="J21" s="23"/>
     </row>
     <row r="22" spans="6:29" x14ac:dyDescent="0.35">
       <c r="F22" t="s">
@@ -3642,51 +3687,53 @@
       <c r="G22" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="25"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" spans="6:29" x14ac:dyDescent="0.35">
       <c r="G23" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="26"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="2" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="24"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Z23" s="3"/>
+      <c r="Z23" s="33"/>
     </row>
     <row r="24" spans="6:29" x14ac:dyDescent="0.35">
-      <c r="X24" s="18" t="s">
+      <c r="X24" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="Z24" s="5"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="23"/>
       <c r="AA24" t="s">
         <v>3</v>
       </c>
       <c r="AC24" s="11"/>
     </row>
     <row r="25" spans="6:29" x14ac:dyDescent="0.35">
-      <c r="X25" s="4" t="s">
+      <c r="X25" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Z25" s="5"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="23"/>
       <c r="AA25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="6:29" x14ac:dyDescent="0.35">
-      <c r="X26" s="4" t="s">
+      <c r="X26" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Z26" s="5"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="23"/>
       <c r="AA26" t="s">
         <v>8</v>
       </c>
@@ -3695,10 +3742,11 @@
       </c>
     </row>
     <row r="27" spans="6:29" x14ac:dyDescent="0.35">
-      <c r="X27" s="4" t="s">
+      <c r="X27" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="Z27" s="5"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="23"/>
       <c r="AA27" t="s">
         <v>3</v>
       </c>
@@ -3707,10 +3755,11 @@
       </c>
     </row>
     <row r="28" spans="6:29" x14ac:dyDescent="0.35">
-      <c r="X28" s="4" t="s">
+      <c r="X28" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="Z28" s="5"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="23"/>
       <c r="AA28" t="s">
         <v>23</v>
       </c>
@@ -3719,15 +3768,28 @@
       </c>
     </row>
     <row r="29" spans="6:29" x14ac:dyDescent="0.35">
-      <c r="X29" s="6" t="s">
+      <c r="X29" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="8"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="23"/>
       <c r="AA29" t="s">
         <v>8</v>
       </c>
       <c r="AC29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="6:29" x14ac:dyDescent="0.35">
+      <c r="X30" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC30" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3796,23 +3858,21 @@
       <c r="X69" s="3"/>
     </row>
     <row r="70" spans="21:25" x14ac:dyDescent="0.35">
-      <c r="U70" s="31" t="s">
+      <c r="U70" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="V70" s="20"/>
-      <c r="W70" s="20"/>
       <c r="X70" s="5"/>
       <c r="Y70" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="21:25" x14ac:dyDescent="0.35">
-      <c r="U71" s="21" t="s">
+      <c r="U71" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="V71" s="22"/>
-      <c r="W71" s="22"/>
-      <c r="X71" s="23"/>
+      <c r="V71" s="20"/>
+      <c r="W71" s="20"/>
+      <c r="X71" s="21"/>
       <c r="Y71" t="s">
         <v>32</v>
       </c>
